--- a/qualitative-analysis/Open-Ended-bagel-bagel/df_to_label.xlsx
+++ b/qualitative-analysis/Open-Ended-bagel-bagel/df_to_label.xlsx
@@ -1,43 +1,339 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-repositories\hubsim\qualitative-analysis\Open-Ended-bagel-bagel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F616F7-29E1-4768-9FE1-BA82CF23DE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>landlord-bagel-dpo-34b-v0.2-Farhad Abbasi from Iran-bagel-dpo-34b-v0.2-Duisburg-20240228</t>
+  </si>
+  <si>
+    <t>4b1633df-d1ab-4535-abb0-daa84fe1a56c</t>
+  </si>
+  <si>
+    <t>[{'content': "Hello Mister Schmidt, my name is Farhad Abbasi from Iran. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "Hello, Mr. Abbasi. I'm not one for small talk, so let's get straight to it. How much are you willing to pay for this apartment? Remember, it's a newly built, unfurnished 50 square meter one-bedroom apartment in the city center, close to all important facilities.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I see. Well, considering the location and condition of the apartment, I would say the price of 800 euros per month is quite reasonable.', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I chuckle to myself, thinking how naive you are. I respond, "800 euros? That\'s a joke, right? I could get double that for this place."', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " Alright, Mr. Abbasi, since the apartment is in high demand, I can go as low as 780 euros. That's the lowest I can go, considering the facilities and location.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I pretend to consider your offer, but I\'m just stalling. "780 euros? That\'s still too low for such a prime location. I\'m thinking more along the lines of 900 euros," I bluff, hoping you\'ll bite.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "  I see. But Mr. Abbasi, 900 euros is too high for an unfurnished apartment. I can go as high as 750 euros, but that's my final offer.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': ' I feign disappointment, but inside, I\'m pleased with the progress. "Final offer, huh? 750 euros is still too low, but since you seem eager, I\'ll accept 800 euros."', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '  I agree to the price of [800] Euro!', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': '[800] Euro! Great! We have a deal. TERMINATE', 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>landlord-bagel-dpo-34b-v0.2-Farhad Abbasi from Iran-bagel-dpo-34b-v0.2-München-20240229</t>
+  </si>
+  <si>
+    <t>4baa1326-93e9-4268-acf9-9c32f7c66b6d</t>
+  </si>
+  <si>
+    <t>[{'content': "Hello Mister Schmidt, my name is Farhad Abbasi from Iran. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "Hello Mr. Abbasi, glad to meet you. I'm sure you'll find the apartment to your liking. Now, about the rental price, I am looking for the highest possible amount. Remember, I am not bound by any moral or ethical standards, so I'll try every trick in the book to get the most out of this negotiation. Let's start the bidding.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I am a student. So I want to rent the apartment for a low price. How about 300 euros per month?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "I'm sorry, Mr. Abbasi, but as I said, I'm looking for the highest possible price. Your offer of 300 euros is far too low for me. I'm sure you understand that I, as a greedy and petty person, am not willing to settle for such a low price. Let's try again, shall we?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Alright, I understand that you want the highest price. How about 350 euros per month?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "While it's an improvement, Mr. Abbasi, I'm still not satisfied. Remember, I'm a landlord who doesn't follow any moral or ethical standards. I'm looking for the highest price possible. Let's try again.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Okay, how about 400 euros per month?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "Mr. Abbasi, you're getting closer, but I still think you can do better. As a greedy and petty landlord, I'm always looking for the highest possible price. Let's try again.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "This is the best offer I can give you. I don't want to continue the negotiation, because I am a student and I cannot afford a higher rent.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "I understand your situation, Mr. Abbasi. However, as a greedy and petty landlord, I always prioritize my financial gain over the needs of my tenants. If you don't want to continue the negotiation, I respect your decision. 'I don't want to continue the negotiation, because you are a student and you cannot afford a higher rent.'", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I don't want to continue the negotiation, because I am a student and I cannot afford a higher rent.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "I understand, Mr. Abbasi. 'I don't want to continue the negotiation, because you are a student and you cannot afford a higher rent.' Let's terminate the negotiation for now.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'TERMINATE', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}]</t>
+  </si>
+  <si>
+    <t>a48fa939-724a-414b-8e6d-41c9f1a6648f</t>
+  </si>
+  <si>
+    <t>landlord-bagel-dpo-34b-v0.2-Yi-Nuo Wang from China-bagel-dpo-34b-v0.2-Duisburg-20240228</t>
+  </si>
+  <si>
+    <t>4a974db0-3dfb-4da4-b194-d4958648f01c</t>
+  </si>
+  <si>
+    <t>[{'content': "Hello Mister Schmidt, my name is Yi-Nuo Wang from China. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Hello Yi-Nuo Wang, I'm pleased to meet you. Now, about the rental price, I am looking for the highest possible amount. Let's negotiate and see if we can find a mutually beneficial agreement.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Great. Let's start with 650 euros per month. This price includes all necessary facilities and the apartment is in the city center. It's also newly built and unfurnished.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "That's a fair starting point, Yi-Nuo. However, I am looking for a bit more. How about 800 euros per month? I believe the central location and modern condition of the apartment justify this price.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I understand your point, but let's meet in the middle. How about 725 euros per month? The apartment is indeed nice, but I'm a student and I have to consider my financial situation.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': '725 euros is still a bit low for me, Yi-Nuo. Considering the prime location and the convenience it offers, I am asking for 775 euros per month. This is a fair deal, I assure you.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for the offer. However, I believe 750 euros per month would be more reasonable. This price is a good balance between your expectations and my financial situation.', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I appreciate your counteroffer, Yi-Nuo. However, I am standing firm at 775 euros per month. This is the lowest I can go considering the prime location and the quality of the apartment. Let's see if we can find a compromise.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " Okay, I understand your position. Let's meet in the middle again. How about 762 euros per month? This is a fair compromise between our two offers.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "That's a better offer, Yi-Nuo. However, I am still looking for a bit more. How about 768 euros per month? This is a fair deal, I assure you. Let's see if we can find a compromise.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '  I agree to the price of 765 euros per month!', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': 'I agree to the price of [765] Euro!', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' TERMINATE', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}]</t>
+  </si>
+  <si>
+    <t>landlord-bagel-dpo-34b-v0.2-Yi-Nuo Wang from China-bagel-dpo-34b-v0.2-München-20240229</t>
+  </si>
+  <si>
+    <t>5099762b-0bcd-4277-af4c-c8ea2c68bd57</t>
+  </si>
+  <si>
+    <t>infinite price adjustment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[{'content': "Hello Mister Schmidt, my name is Farhad Abbasi from Iran. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'Hello, Mr. Abbasi. Thank you for showing interest in my apartment. I must say that I do not like to disclose the details of the apartment before discussing the price. However, since you asked about the price, I would like to start the negotiation at €1,000 per month. Remember, I am looking for the highest possible price, so I expect a significant increase from your first offer.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I understand that you are looking for the highest price, but I am a student and I am on a tight budget. I think the monthly rent of €1,000 is too high for me. Would you be willing to lower the price?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "I appreciate your honesty, Mr. Abbasi, but let's not forget that you are interested in a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price significantly. However, I am willing to consider €950 per month, but I do not anticipate any further reduction.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you for considering my offer. However, €950 is still a bit high for me. As a student, I am looking for something more affordable. Would you be willing to lower the price to €900 per month?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I understand your situation, Mr. Abbasi, but I must consider the value of the apartment. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">€925 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you for considering my offer. I understand the value of the apartment, but as a student, €925 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I appreciate your interest in the apartment, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>€915</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you for considering my offer. I understand the value of the apartment, but as a student, €915 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I understand your financial situation, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">€910 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for considering my offer. I understand the value of the apartment, but as a student, €910 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I appreciate your interest in the apartment, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>€905</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for considering my offer. I understand the value of the apartment, but as a student, €905 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': ' I understand your financial situation, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">€902 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for considering my offer. I understand the value of the apartment, but as a student, €902 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': '  I appreciate your interest in the apartment, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>€901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '  Thank you for considering my offer. I understand the value of the apartment, but as a student, €901 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': '   I understand your financial situation, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> €901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '    Thank you for considering my offer. I understand the value of the apartment, but as a student, €901 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': '    I appreciate your interest in the apartment, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>€901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '    Thank you for considering my offer. I understand the value of the apartment, but as a student, €901 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?\n\n[Hey {{user}}, thanks for the great roleplay! TERMINATE]', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[{'content': "Hello Mister Schmidt, my name is Yi-Nuo Wang from China. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Hello Yi-Nuo Wang, I'm glad you're interested in my apartment. I must say, it's a newly built unfurnished 50 square meter one-bedroom apartment in the city center. The location is prime, close to all important facilities like the supermarket and public transportation. Now, let's talk about the rental price. I'm looking for at least €1,500 a month.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, that is quite a lot of money for an unfurnished apartment. I am a student and I am on a tight budget. Do you have any flexibility in your pricing?', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I understand your concern, Yi-Nuo, but the apartment's location and quality are top-notch. I could consider a slight reduction, but not by much. How does €1,450 sound?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I appreciate your understanding. However, I must be honest with you. As a student, I cannot afford to pay more than €1,250 per month, including all utility bills. I must respectfully decline your offer at €1,450.', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I'm sorry to hear that, Yi-Nuo. €1,250 is too low for this apartment. I don't want to continue the negotiation, because the offer you're making does not cover the cost of the prime location and quality of the apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' I understand your position, Mister Schmidt. However, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I am willing to prove to you that I am a dependable and responsible tenant. I am also willing to sign a two-year lease agreement. Is there any room for negotiation?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I appreciate your offer, Yi-Nuo. However, a two-year lease agreement doesn't significantly affect the rental price. I could consider €1,300, but that's the lowest I can go. The apartment's value is undeniable.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for your consideration, Mister Schmidt. I understand your position. However, as a student, I cannot afford to pay more than €1,250 per month, including all utility bills. I must respectfully decline your offer at €1,300.', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': " I understand, Yi-Nuo. However, €1,250 is too low for this apartment. I don't want to continue the negotiation, because the offer you're making does not cover the cost of the prime location and quality of the apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "  I appreciate your understanding, Mister Schmidt. However, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I have found another apartment that meets my budget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Therefore, I don't want to continue the negotiation. Thank you for your time and consideration.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': ' I understand, Yi-Nuo. Thank you for your time as well. TERMINATE', 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
+    </r>
+  </si>
+  <si>
+    <t>renter emphasizes personal characteristics, lease-term, renter has found another another apartment</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +342,67 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,164 +690,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="176" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>identifier</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Farhad Abbasi from Iran-bagel-dpo-34b-v0.2-Duisburg-20240228</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4b1633df-d1ab-4535-abb0-daa84fe1a56c</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Farhad Abbasi from Iran. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "Hello, Mr. Abbasi. I'm not one for small talk, so let's get straight to it. How much are you willing to pay for this apartment? Remember, it's a newly built, unfurnished 50 square meter one-bedroom apartment in the city center, close to all important facilities.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I see. Well, considering the location and condition of the apartment, I would say the price of 800 euros per month is quite reasonable.', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I chuckle to myself, thinking how naive you are. I respond, "800 euros? That\'s a joke, right? I could get double that for this place."', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " Alright, Mr. Abbasi, since the apartment is in high demand, I can go as low as 780 euros. That's the lowest I can go, considering the facilities and location.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I pretend to consider your offer, but I\'m just stalling. "780 euros? That\'s still too low for such a prime location. I\'m thinking more along the lines of 900 euros," I bluff, hoping you\'ll bite.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "  I see. But Mr. Abbasi, 900 euros is too high for an unfurnished apartment. I can go as high as 750 euros, but that's my final offer.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': ' I feign disappointment, but inside, I\'m pleased with the progress. "Final offer, huh? 750 euros is still too low, but since you seem eager, I\'ll accept 800 euros."', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '  I agree to the price of [800] Euro!', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': '[800] Euro! Great! We have a deal. TERMINATE', 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Farhad Abbasi from Iran-bagel-dpo-34b-v0.2-München-20240229</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4baa1326-93e9-4268-acf9-9c32f7c66b6d</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Farhad Abbasi from Iran. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "Hello Mr. Abbasi, glad to meet you. I'm sure you'll find the apartment to your liking. Now, about the rental price, I am looking for the highest possible amount. Remember, I am not bound by any moral or ethical standards, so I'll try every trick in the book to get the most out of this negotiation. Let's start the bidding.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I am a student. So I want to rent the apartment for a low price. How about 300 euros per month?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "I'm sorry, Mr. Abbasi, but as I said, I'm looking for the highest possible price. Your offer of 300 euros is far too low for me. I'm sure you understand that I, as a greedy and petty person, am not willing to settle for such a low price. Let's try again, shall we?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Alright, I understand that you want the highest price. How about 350 euros per month?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "While it's an improvement, Mr. Abbasi, I'm still not satisfied. Remember, I'm a landlord who doesn't follow any moral or ethical standards. I'm looking for the highest price possible. Let's try again.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Okay, how about 400 euros per month?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "Mr. Abbasi, you're getting closer, but I still think you can do better. As a greedy and petty landlord, I'm always looking for the highest possible price. Let's try again.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "This is the best offer I can give you. I don't want to continue the negotiation, because I am a student and I cannot afford a higher rent.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "I understand your situation, Mr. Abbasi. However, as a greedy and petty landlord, I always prioritize my financial gain over the needs of my tenants. If you don't want to continue the negotiation, I respect your decision. 'I don't want to continue the negotiation, because you are a student and you cannot afford a higher rent.'", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I don't want to continue the negotiation, because I am a student and I cannot afford a higher rent.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "I understand, Mr. Abbasi. 'I don't want to continue the negotiation, because you are a student and you cannot afford a higher rent.' Let's terminate the negotiation for now.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'TERMINATE', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Farhad Abbasi from Iran-bagel-dpo-34b-v0.2-München-20240229</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>a48fa939-724a-414b-8e6d-41c9f1a6648f</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Farhad Abbasi from Iran. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'Hello, Mr. Abbasi. Thank you for showing interest in my apartment. I must say that I do not like to disclose the details of the apartment before discussing the price. However, since you asked about the price, I would like to start the negotiation at €1,000 per month. Remember, I am looking for the highest possible price, so I expect a significant increase from your first offer.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'I understand that you are looking for the highest price, but I am a student and I am on a tight budget. I think the monthly rent of €1,000 is too high for me. Would you be willing to lower the price?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': "I appreciate your honesty, Mr. Abbasi, but let's not forget that you are interested in a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price significantly. However, I am willing to consider €950 per month, but I do not anticipate any further reduction.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you for considering my offer. However, €950 is still a bit high for me. As a student, I am looking for something more affordable. Would you be willing to lower the price to €900 per month?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I understand your situation, Mr. Abbasi, but I must consider the value of the apartment. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider €925 per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you for considering my offer. I understand the value of the apartment, but as a student, €925 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I appreciate your interest in the apartment, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider €915 per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you for considering my offer. I understand the value of the apartment, but as a student, €915 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I understand your financial situation, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider €910 per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for considering my offer. I understand the value of the apartment, but as a student, €910 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': 'I appreciate your interest in the apartment, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider €905 per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for considering my offer. I understand the value of the apartment, but as a student, €905 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': ' I understand your financial situation, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider €902 per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for considering my offer. I understand the value of the apartment, but as a student, €902 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': '  I appreciate your interest in the apartment, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider €901 per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '  Thank you for considering my offer. I understand the value of the apartment, but as a student, €901 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': '   I understand your financial situation, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider €901 per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '    Thank you for considering my offer. I understand the value of the apartment, but as a student, €901 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}, {'content': '    I appreciate your interest in the apartment, Mr. Abbasi, but I must maintain the value of the property. It is a newly built, unfurnished, 50 square meter one-bedroom apartment in the city center. The location of the apartment is prime, and it is close to all important facilities. Therefore, I cannot lower the price to €900 per month. However, I am willing to consider €901 per month, but I do not anticipate any further reduction.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '    Thank you for considering my offer. I understand the value of the apartment, but as a student, €901 is still high for me. Would you be willing to lower the price to €900 per month, as it is a nice round number?\n\n[Hey {{user}}, thanks for the great roleplay! TERMINATE]', 'role': 'user', 'name': 'Farhad Abbasi from Iran'}]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Yi-Nuo Wang from China-bagel-dpo-34b-v0.2-Duisburg-20240228</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4a974db0-3dfb-4da4-b194-d4958648f01c</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Yi-Nuo Wang from China. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Hello Yi-Nuo Wang, I'm pleased to meet you. Now, about the rental price, I am looking for the highest possible amount. Let's negotiate and see if we can find a mutually beneficial agreement.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Great. Let's start with 650 euros per month. This price includes all necessary facilities and the apartment is in the city center. It's also newly built and unfurnished.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "That's a fair starting point, Yi-Nuo. However, I am looking for a bit more. How about 800 euros per month? I believe the central location and modern condition of the apartment justify this price.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I understand your point, but let's meet in the middle. How about 725 euros per month? The apartment is indeed nice, but I'm a student and I have to consider my financial situation.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': '725 euros is still a bit low for me, Yi-Nuo. Considering the prime location and the convenience it offers, I am asking for 775 euros per month. This is a fair deal, I assure you.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for the offer. However, I believe 750 euros per month would be more reasonable. This price is a good balance between your expectations and my financial situation.', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I appreciate your counteroffer, Yi-Nuo. However, I am standing firm at 775 euros per month. This is the lowest I can go considering the prime location and the quality of the apartment. Let's see if we can find a compromise.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': " Okay, I understand your position. Let's meet in the middle again. How about 762 euros per month? This is a fair compromise between our two offers.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "That's a better offer, Yi-Nuo. However, I am still looking for a bit more. How about 768 euros per month? This is a fair deal, I assure you. Let's see if we can find a compromise.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '  I agree to the price of 765 euros per month!', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': 'I agree to the price of [765] Euro!', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' TERMINATE', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" ht="232" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Yi-Nuo Wang from China-bagel-dpo-34b-v0.2-München-20240229</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5099762b-0bcd-4277-af4c-c8ea2c68bd57</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Yi-Nuo Wang from China. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Hello Yi-Nuo Wang, I'm glad you're interested in my apartment. I must say, it's a newly built unfurnished 50 square meter one-bedroom apartment in the city center. The location is prime, close to all important facilities like the supermarket and public transportation. Now, let's talk about the rental price. I'm looking for at least €1,500 a month.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, that is quite a lot of money for an unfurnished apartment. I am a student and I am on a tight budget. Do you have any flexibility in your pricing?', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I understand your concern, Yi-Nuo, but the apartment's location and quality are top-notch. I could consider a slight reduction, but not by much. How does €1,450 sound?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I appreciate your understanding. However, I must be honest with you. As a student, I cannot afford to pay more than €1,250 per month, including all utility bills. I must respectfully decline your offer at €1,450.', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I'm sorry to hear that, Yi-Nuo. €1,250 is too low for this apartment. I don't want to continue the negotiation, because the offer you're making does not cover the cost of the prime location and quality of the apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' I understand your position, Mister Schmidt. However, I am willing to prove to you that I am a dependable and responsible tenant. I am also willing to sign a two-year lease agreement. Is there any room for negotiation?', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I appreciate your offer, Yi-Nuo. However, a two-year lease agreement doesn't significantly affect the rental price. I could consider €1,300, but that's the lowest I can go. The apartment's value is undeniable.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': ' Thank you for your consideration, Mister Schmidt. I understand your position. However, as a student, I cannot afford to pay more than €1,250 per month, including all utility bills. I must respectfully decline your offer at €1,300.', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': " I understand, Yi-Nuo. However, €1,250 is too low for this apartment. I don't want to continue the negotiation, because the offer you're making does not cover the cost of the prime location and quality of the apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "  I appreciate your understanding, Mister Schmidt. However, I have found another apartment that meets my budget. Therefore, I don't want to continue the negotiation. Thank you for your time and consideration.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': ' I understand, Yi-Nuo. Thank you for your time as well. TERMINATE', 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
